--- a/Modellierungen/Risikoanalyse .xlsx
+++ b/Modellierungen/Risikoanalyse .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\Modellierungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76FBE2-55C9-4528-B7CA-4864B7E6D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C5EBD-A41A-456C-9F79-1326F6B686F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <author>tc={D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</t>
       </text>
     </comment>
@@ -696,7 +696,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1014,7 +1014,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C4" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+  <threadedComment ref="C20" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
     <text>Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1025,10 +1025,10 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K17" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1110,37 +1110,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
         <v>8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
       </c>
       <c r="I4" s="2">
         <f>F4*G4*H4</f>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -1148,32 +1148,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
         <v>8</v>
       </c>
       <c r="I5" s="2">
         <f>F5*G5*H5</f>
-        <v>192</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>67</v>
+        <v>144</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -1181,32 +1181,32 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
         <f>F6*G6*H6</f>
-        <v>175</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1214,10 +1214,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1229,83 +1229,83 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
         <f>F7*G7*H7</f>
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <f>F8*G8*H8</f>
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
         <f>F9*G9*H9</f>
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -1313,43 +1313,43 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
         <f>F10*G10*H10</f>
-        <v>126</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>49</v>
@@ -1361,17 +1361,17 @@
         <v>6</v>
       </c>
       <c r="H11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
         <f>F11*G11*H11</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1379,115 +1379,115 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
       </c>
       <c r="I12" s="2">
         <f>F12*G12*H12</f>
-        <v>84</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
+      <c r="C13" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
         <f>F13*G13*H13</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>101</v>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>7</v>
       </c>
       <c r="I14" s="2">
         <f>F14*G14*H14</f>
-        <v>70</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>110</v>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2">
         <v>5</v>
@@ -1497,79 +1497,79 @@
       </c>
       <c r="I15" s="2">
         <f>F15*G15*H15</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="F16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2">
         <f>F16*G16*H16</f>
-        <v>60</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
         <v>6</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
       </c>
       <c r="I17" s="2">
         <f>F17*G17*H17</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -1577,98 +1577,98 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
         <f>F18*G18*H18</f>
-        <v>56</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>114</v>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <f>F19*G19*H19</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6</v>
-      </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="2">
         <f>F20*G20*H20</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="15"/>

--- a/Modellierungen/Risikoanalyse .xlsx
+++ b/Modellierungen/Risikoanalyse .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\Modellierungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0C5EBD-A41A-456C-9F79-1326F6B686F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00369D-FD4F-4361-B1B3-7AD6963EECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,48 +1209,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
       <c r="H7" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <f>F7*G7*H7</f>
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1259,31 +1259,31 @@
         <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
         <f>F8*G8*H8</f>
-        <v>105</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
@@ -1295,133 +1295,133 @@
         <v>6</v>
       </c>
       <c r="H9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
         <f>F9*G9*H9</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <v>7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4</v>
       </c>
       <c r="I10" s="2">
         <f>F10*G10*H10</f>
-        <v>84</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
         <f>F11*G11*H11</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>7</v>
       </c>
       <c r="I12" s="2">
         <f>F12*G12*H12</f>
-        <v>70</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
@@ -1431,57 +1431,57 @@
       </c>
       <c r="I13" s="2">
         <f>F13*G13*H13</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
         <f>F14*G14*H14</f>
-        <v>60</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -1490,155 +1490,155 @@
         <v>6</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
         <f>F15*G15*H15</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2">
         <f>F16*G16*H16</f>
-        <v>56</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2">
         <v>3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>6</v>
       </c>
       <c r="I17" s="2">
         <f>F17*G17*H17</f>
         <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <f>F18*G18*H18</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6</v>
-      </c>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="2">
         <f>F19*G19*H19</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>

--- a/Modellierungen/Risikoanalyse .xlsx
+++ b/Modellierungen/Risikoanalyse .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\Modellierungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\Modellierungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00369D-FD4F-4361-B1B3-7AD6963EECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031AB775-91D7-4637-AD0A-28651F518FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E132414-D48E-4109-917A-DDBB02FA32DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Risikoanalyse" sheetId="1" r:id="rId1"/>
@@ -45,11 +45,11 @@
     <author>tc={D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}</author>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</t>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>Daten können zunächst nicht verschlüsselt werden und Projektzeit verlängert sich durch Aneignung</t>
+  </si>
+  <si>
+    <t>Sammlung an Bildern in "Unbekannt" wird nicht schnell genug abgearbeitet</t>
+  </si>
+  <si>
+    <t>Bilder, die unter "Unbekannt" gespeichert sind können von Usern zu Städten zugeordnet werden. Geschieht dies nicht regelmäßig staut sich in diesem eigentlich temporären Bereich zu viel auf</t>
+  </si>
+  <si>
+    <t>User sind nicht motiviert Bilder zu Städten zuzuordnen</t>
+  </si>
+  <si>
+    <t>Anreiz gestalten sich bei der Zuordnung zu beteiligen</t>
   </si>
 </sst>
 </file>
@@ -640,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,9 +706,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,7 +733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1014,7 +1029,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C20" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
+  <threadedComment ref="C21" dT="2022-12-07T15:55:35.69" personId="{4137736A-FB43-4E17-A4A9-F56044E4A11C}" id="{D8795011-FCF1-4F5D-B9AB-FFD48B37FCB3}">
     <text>Diesen Punkt möglicherweise auftrennen in mehrere Bereiche (Datenbank, UI, Client-Server Architektur, etc.)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1024,11 +1039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1242,7 +1257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>8</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>9</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>10</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>13</v>
       </c>
@@ -1440,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>14</v>
       </c>
@@ -1474,44 +1489,41 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>5</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
         <f>F15*G15*H15</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>119</v>
@@ -1520,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="2">
         <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
         <f>F16*G16*H16</f>
@@ -1539,114 +1551,114 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <f>F17*G17*H17</f>
         <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
         <f>F18*G18*H18</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <f>F19*G19*H19</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1665,108 +1677,141 @@
         <v>45</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>16</v>
+        <v>121</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
-        <v>4</v>
-      </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
         <f>F21*G21*H21</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <f>F22*G22*H22</f>
-        <v>30</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>105</v>
+        <v>40</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I23" s="2">
         <f>F23*G23*H23</f>
+        <v>30</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
         <v>10</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="I24" s="2">
+        <f>F24*G24*H24</f>
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K24" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1836,7 +1881,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:K2" xr:uid="{41507692-B3E7-4736-8B1E-F996832B908F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K24">
       <sortCondition descending="1" ref="I2"/>
     </sortState>
   </autoFilter>
@@ -1854,7 +1899,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="15"/>
